--- a/www.eia.gov/electricity/monthly/xls/table_4_13_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_13_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="75">
-  <si>
-    <t>Table 4.13.B. Average Cost of Natural Gas Delivered for Electricity Generation by State, (Year-to-Date) October 2016 and 2015</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="75">
+  <si>
+    <t>Table 4.13.B. Average Cost of Natural Gas Delivered for Electricity Generation by State, (Year-to-Date) November 2016 and 2015</t>
   </si>
   <si>
     <t>(Dollars per MMBtu)</t>
@@ -46,10 +46,10 @@
     <t/>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1294,25 +1294,25 @@
         <v>10</v>
       </c>
       <c r="B5" s="10">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="C5" s="10">
-        <v>4.3600000000000003</v>
+        <v>4.34</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.3</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="E5" s="10">
         <v>3.5</v>
       </c>
       <c r="F5" s="10">
-        <v>3.9</v>
+        <v>3.93</v>
       </c>
       <c r="G5" s="10">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="H5" s="10">
-        <v>4.3600000000000003</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1320,13 +1320,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="13">
-        <v>3.41</v>
+        <v>3.39</v>
       </c>
       <c r="C6" s="13">
-        <v>4.5199999999999996</v>
+        <v>4.57</v>
       </c>
       <c r="D6" s="14">
-        <v>-0.25</v>
+        <v>-0.26</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>12</v>
@@ -1335,10 +1335,10 @@
         <v>12</v>
       </c>
       <c r="G6" s="13">
-        <v>3.41</v>
+        <v>3.39</v>
       </c>
       <c r="H6" s="13">
-        <v>4.5199999999999996</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1372,13 +1372,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="13">
-        <v>2.82</v>
+        <v>2.89</v>
       </c>
       <c r="C8" s="13">
-        <v>4.3499999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="D8" s="14">
-        <v>-0.35</v>
+        <v>-0.33</v>
       </c>
       <c r="E8" s="13">
         <v>3.38</v>
@@ -1387,10 +1387,10 @@
         <v>3.77</v>
       </c>
       <c r="G8" s="13">
-        <v>2.81</v>
+        <v>2.88</v>
       </c>
       <c r="H8" s="13">
-        <v>4.3600000000000003</v>
+        <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1410,7 +1410,7 @@
         <v>3.91</v>
       </c>
       <c r="F9" s="13">
-        <v>4.6900000000000004</v>
+        <v>4.91</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>14</v>
@@ -1427,7 +1427,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="13">
-        <v>3.71</v>
+        <v>3.69</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>14</v>
@@ -1442,7 +1442,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="13">
-        <v>3.71</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1476,25 +1476,25 @@
         <v>19</v>
       </c>
       <c r="B12" s="10">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="C12" s="10">
-        <v>3.09</v>
+        <v>2.99</v>
       </c>
       <c r="D12" s="11">
-        <v>-0.33</v>
+        <v>-0.3</v>
       </c>
       <c r="E12" s="10">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F12" s="10">
-        <v>3.79</v>
+        <v>3.71</v>
       </c>
       <c r="G12" s="10">
-        <v>2.0099999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="H12" s="10">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1502,13 +1502,13 @@
         <v>20</v>
       </c>
       <c r="B13" s="13">
-        <v>1.99</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="C13" s="13">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="D13" s="14">
-        <v>-0.36</v>
+        <v>-0.32</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>12</v>
@@ -1517,10 +1517,10 @@
         <v>12</v>
       </c>
       <c r="G13" s="13">
-        <v>1.99</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="H13" s="13">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1528,25 +1528,25 @@
         <v>21</v>
       </c>
       <c r="B14" s="13">
-        <v>2.4700000000000002</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="C14" s="13">
-        <v>3.52</v>
+        <v>3.45</v>
       </c>
       <c r="D14" s="14">
-        <v>-0.3</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="E14" s="13">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F14" s="13">
-        <v>3.79</v>
+        <v>3.71</v>
       </c>
       <c r="G14" s="13">
-        <v>2.4700000000000002</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="H14" s="13">
-        <v>3.42</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1554,13 +1554,13 @@
         <v>22</v>
       </c>
       <c r="B15" s="13">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="C15" s="13">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D15" s="14">
-        <v>-0.34</v>
+        <v>-0.3</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>12</v>
@@ -1569,10 +1569,10 @@
         <v>12</v>
       </c>
       <c r="G15" s="13">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="H15" s="13">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1580,25 +1580,25 @@
         <v>23</v>
       </c>
       <c r="B16" s="10">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="C16" s="10">
-        <v>2.95</v>
+        <v>2.89</v>
       </c>
       <c r="D16" s="11">
-        <v>-0.13</v>
+        <v>-0.11</v>
       </c>
       <c r="E16" s="10">
         <v>2.7</v>
       </c>
       <c r="F16" s="10">
-        <v>3.09</v>
+        <v>3.02</v>
       </c>
       <c r="G16" s="10">
         <v>2.4500000000000002</v>
       </c>
       <c r="H16" s="10">
-        <v>2.83</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1608,23 +1608,23 @@
       <c r="B17" s="13">
         <v>2.75</v>
       </c>
-      <c r="C17" s="13">
-        <v>3.22</v>
-      </c>
-      <c r="D17" s="14">
-        <v>-0.15</v>
+      <c r="C17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="E17" s="13">
         <v>3</v>
       </c>
       <c r="F17" s="13">
-        <v>3.83</v>
+        <v>3.81</v>
       </c>
       <c r="G17" s="13">
         <v>2.72</v>
       </c>
-      <c r="H17" s="13">
-        <v>3.17</v>
+      <c r="H17" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1641,10 +1641,10 @@
         <v>14</v>
       </c>
       <c r="E18" s="13">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="F18" s="13">
-        <v>3.06</v>
+        <v>3.01</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>14</v>
@@ -1661,22 +1661,22 @@
         <v>2.64</v>
       </c>
       <c r="C19" s="13">
-        <v>3.31</v>
+        <v>3.23</v>
       </c>
       <c r="D19" s="14">
-        <v>-0.2</v>
+        <v>-0.18</v>
       </c>
       <c r="E19" s="13">
         <v>2.82</v>
       </c>
       <c r="F19" s="13">
-        <v>3.31</v>
+        <v>3.22</v>
       </c>
       <c r="G19" s="13">
-        <v>2.5299999999999998</v>
+        <v>2.54</v>
       </c>
       <c r="H19" s="13">
-        <v>3.31</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1684,25 +1684,25 @@
         <v>27</v>
       </c>
       <c r="B20" s="13">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="C20" s="13">
-        <v>2.36</v>
+        <v>2.33</v>
       </c>
       <c r="D20" s="14">
-        <v>-9.2999999999999999E-2</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="E20" s="13">
         <v>2.16</v>
       </c>
       <c r="F20" s="13">
-        <v>2.5099999999999998</v>
+        <v>2.44</v>
       </c>
       <c r="G20" s="13">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="H20" s="13">
-        <v>2.31</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1719,10 +1719,10 @@
         <v>14</v>
       </c>
       <c r="E21" s="13">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="F21" s="13">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>14</v>
@@ -1736,7 +1736,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="10">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>14</v>
@@ -1745,13 +1745,13 @@
         <v>14</v>
       </c>
       <c r="E22" s="10">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="F22" s="10">
-        <v>3.52</v>
+        <v>3.51</v>
       </c>
       <c r="G22" s="10">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>14</v>
@@ -1762,19 +1762,19 @@
         <v>30</v>
       </c>
       <c r="B23" s="13">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="C23" s="13">
-        <v>3.09</v>
+        <v>3.12</v>
       </c>
       <c r="D23" s="14">
         <v>-0.17</v>
       </c>
       <c r="E23" s="13">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="F23" s="13">
-        <v>3.09</v>
+        <v>3.12</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>12</v>
@@ -1788,7 +1788,7 @@
         <v>31</v>
       </c>
       <c r="B24" s="13">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="C24" s="13">
         <v>3.75</v>
@@ -1797,7 +1797,7 @@
         <v>-0.13</v>
       </c>
       <c r="E24" s="13">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="F24" s="13">
         <v>3.75</v>
@@ -1823,10 +1823,10 @@
         <v>14</v>
       </c>
       <c r="E25" s="13">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="F25" s="13">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>14</v>
@@ -1849,10 +1849,10 @@
         <v>14</v>
       </c>
       <c r="E26" s="13">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="F26" s="13">
-        <v>3.38</v>
+        <v>3.32</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>14</v>
@@ -1866,19 +1866,19 @@
         <v>34</v>
       </c>
       <c r="B27" s="13">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="C27" s="13">
-        <v>3.74</v>
+        <v>3.72</v>
       </c>
       <c r="D27" s="14">
         <v>-0.18</v>
       </c>
       <c r="E27" s="13">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="F27" s="13">
-        <v>3.74</v>
+        <v>3.72</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>12</v>
@@ -1895,7 +1895,7 @@
         <v>2.72</v>
       </c>
       <c r="C28" s="13">
-        <v>8.39</v>
+        <v>8.42</v>
       </c>
       <c r="D28" s="14">
         <v>-0.68</v>
@@ -1904,7 +1904,7 @@
         <v>2.72</v>
       </c>
       <c r="F28" s="13">
-        <v>8.39</v>
+        <v>8.42</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>12</v>
@@ -1918,19 +1918,19 @@
         <v>36</v>
       </c>
       <c r="B29" s="13">
-        <v>2.4300000000000002</v>
+        <v>2.42</v>
       </c>
       <c r="C29" s="13">
-        <v>3.28</v>
+        <v>3.24</v>
       </c>
       <c r="D29" s="14">
-        <v>-0.26</v>
+        <v>-0.25</v>
       </c>
       <c r="E29" s="13">
-        <v>2.4300000000000002</v>
+        <v>2.42</v>
       </c>
       <c r="F29" s="13">
-        <v>3.28</v>
+        <v>3.24</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>12</v>
@@ -1944,25 +1944,25 @@
         <v>37</v>
       </c>
       <c r="B30" s="10">
-        <v>3.36</v>
+        <v>3.39</v>
       </c>
       <c r="C30" s="10">
-        <v>4.08</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="D30" s="11">
-        <v>-0.18</v>
+        <v>-0.16</v>
       </c>
       <c r="E30" s="10">
-        <v>3.47</v>
+        <v>3.49</v>
       </c>
       <c r="F30" s="10">
-        <v>4.22</v>
+        <v>4.16</v>
       </c>
       <c r="G30" s="10">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="H30" s="10">
-        <v>2.97</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2022,25 +2022,25 @@
         <v>40</v>
       </c>
       <c r="B33" s="13">
-        <v>3.7</v>
+        <v>3.73</v>
       </c>
       <c r="C33" s="13">
-        <v>4.3899999999999997</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="D33" s="14">
-        <v>-0.16</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E33" s="13">
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
       <c r="F33" s="13">
-        <v>4.42</v>
+        <v>4.37</v>
       </c>
       <c r="G33" s="13">
+        <v>2.85</v>
+      </c>
+      <c r="H33" s="13">
         <v>2.84</v>
-      </c>
-      <c r="H33" s="13">
-        <v>2.91</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2048,25 +2048,25 @@
         <v>41</v>
       </c>
       <c r="B34" s="13">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="C34" s="13">
-        <v>3.29</v>
+        <v>3.23</v>
       </c>
       <c r="D34" s="14">
-        <v>-0.12</v>
+        <v>-0.1</v>
       </c>
       <c r="E34" s="13">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="F34" s="13">
-        <v>3.33</v>
+        <v>3.27</v>
       </c>
       <c r="G34" s="13">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="H34" s="13">
-        <v>3.14</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2077,10 +2077,10 @@
         <v>2.83</v>
       </c>
       <c r="C35" s="13">
-        <v>4.08</v>
+        <v>3.96</v>
       </c>
       <c r="D35" s="14">
-        <v>-0.31</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>12</v>
@@ -2092,7 +2092,7 @@
         <v>2.83</v>
       </c>
       <c r="H35" s="13">
-        <v>4.08</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
         <v>3.62</v>
       </c>
       <c r="F36" s="13">
-        <v>4.83</v>
+        <v>4.72</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>14</v>
@@ -2138,7 +2138,7 @@
         <v>3.23</v>
       </c>
       <c r="F37" s="13">
-        <v>3.52</v>
+        <v>3.43</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>14</v>
@@ -2155,22 +2155,22 @@
         <v>14</v>
       </c>
       <c r="C38" s="13">
-        <v>3.52</v>
+        <v>3.45</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="13">
-        <v>2.82</v>
+        <v>2.97</v>
       </c>
       <c r="F38" s="13">
-        <v>3.96</v>
+        <v>3.91</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H38" s="13">
-        <v>2.23</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2190,7 +2190,7 @@
         <v>2.42</v>
       </c>
       <c r="F39" s="13">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>14</v>
@@ -2204,25 +2204,25 @@
         <v>47</v>
       </c>
       <c r="B40" s="10">
+        <v>2.74</v>
+      </c>
+      <c r="C40" s="10">
+        <v>2.98</v>
+      </c>
+      <c r="D40" s="11">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="E40" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="F40" s="10">
+        <v>2.96</v>
+      </c>
+      <c r="G40" s="10">
         <v>2.73</v>
       </c>
-      <c r="C40" s="10">
-        <v>3.04</v>
-      </c>
-      <c r="D40" s="11">
-        <v>-0.1</v>
-      </c>
-      <c r="E40" s="10">
-        <v>2.74</v>
-      </c>
-      <c r="F40" s="10">
-        <v>3.03</v>
-      </c>
-      <c r="G40" s="10">
-        <v>2.72</v>
-      </c>
       <c r="H40" s="10">
-        <v>3.06</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2239,10 +2239,10 @@
         <v>14</v>
       </c>
       <c r="E41" s="13">
-        <v>2.83</v>
+        <v>2.86</v>
       </c>
       <c r="F41" s="13">
-        <v>3.14</v>
+        <v>3.07</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>14</v>
@@ -2268,7 +2268,7 @@
         <v>3.06</v>
       </c>
       <c r="F42" s="13">
-        <v>3.71</v>
+        <v>3.53</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>14</v>
@@ -2291,10 +2291,10 @@
         <v>14</v>
       </c>
       <c r="E43" s="13">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="F43" s="13">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="G43" s="13" t="s">
         <v>14</v>
@@ -2308,19 +2308,19 @@
         <v>51</v>
       </c>
       <c r="B44" s="13">
-        <v>2.5</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="C44" s="13">
-        <v>2.81</v>
+        <v>2.76</v>
       </c>
       <c r="D44" s="14">
-        <v>-0.11</v>
+        <v>-9.0999999999999998E-2</v>
       </c>
       <c r="E44" s="13">
-        <v>2.5</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="F44" s="13">
-        <v>2.81</v>
+        <v>2.76</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>12</v>
@@ -2337,22 +2337,22 @@
         <v>2.57</v>
       </c>
       <c r="C45" s="10">
-        <v>2.93</v>
+        <v>2.88</v>
       </c>
       <c r="D45" s="11">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="E45" s="10">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="F45" s="10">
-        <v>3.05</v>
+        <v>2.99</v>
       </c>
       <c r="G45" s="10">
         <v>2.4900000000000002</v>
       </c>
       <c r="H45" s="10">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2372,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="F46" s="13">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>14</v>
@@ -2385,26 +2385,26 @@
       <c r="A47" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="13">
-        <v>3.03</v>
+      <c r="B47" s="13">
+        <v>2.6</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="13">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="F47" s="13">
-        <v>3.05</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="13">
-        <v>2.83</v>
+        <v>2.98</v>
+      </c>
+      <c r="G47" s="13">
+        <v>2.37</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2421,10 +2421,10 @@
         <v>14</v>
       </c>
       <c r="E48" s="13">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="F48" s="13">
-        <v>3.11</v>
+        <v>3.05</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>14</v>
@@ -2438,25 +2438,25 @@
         <v>56</v>
       </c>
       <c r="B49" s="13">
-        <v>2.54</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C49" s="13">
-        <v>2.89</v>
+        <v>2.84</v>
       </c>
       <c r="D49" s="14">
-        <v>-0.12</v>
+        <v>-0.1</v>
       </c>
       <c r="E49" s="13">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="F49" s="13">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="G49" s="13">
         <v>2.5099999999999998</v>
       </c>
       <c r="H49" s="13">
-        <v>2.86</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
         <v>57</v>
       </c>
       <c r="B50" s="10">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>14</v>
@@ -2473,13 +2473,13 @@
         <v>14</v>
       </c>
       <c r="E50" s="10">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="F50" s="10">
-        <v>3.33</v>
+        <v>3.28</v>
       </c>
       <c r="G50" s="10">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>14</v>
@@ -2493,22 +2493,22 @@
         <v>14</v>
       </c>
       <c r="C51" s="13">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E51" s="13">
-        <v>3.08</v>
+        <v>3.11</v>
       </c>
       <c r="F51" s="13">
-        <v>3.51</v>
+        <v>3.46</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H51" s="13">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2519,22 +2519,22 @@
         <v>14</v>
       </c>
       <c r="C52" s="13">
-        <v>3.64</v>
+        <v>3.57</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E52" s="13">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="F52" s="13">
-        <v>3.52</v>
+        <v>3.44</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H52" s="13">
-        <v>4.33</v>
+        <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2542,19 +2542,19 @@
         <v>60</v>
       </c>
       <c r="B53" s="13">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="C53" s="13">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="D53" s="14">
-        <v>-5.3999999999999999E-2</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="E53" s="13">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="F53" s="13">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>12</v>
@@ -2580,7 +2580,7 @@
         <v>12</v>
       </c>
       <c r="F54" s="13">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>12</v>
@@ -2594,19 +2594,19 @@
         <v>62</v>
       </c>
       <c r="B55" s="13">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="C55" s="13">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
       <c r="D55" s="14">
-        <v>-0.14000000000000001</v>
+        <v>-0.12</v>
       </c>
       <c r="E55" s="13">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="F55" s="13">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
       <c r="G55" s="13" t="s">
         <v>12</v>
@@ -2620,19 +2620,19 @@
         <v>63</v>
       </c>
       <c r="B56" s="13">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="C56" s="13">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="D56" s="14">
-        <v>-0.12</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="E56" s="13">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="F56" s="13">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>12</v>
@@ -2655,10 +2655,10 @@
         <v>14</v>
       </c>
       <c r="E57" s="13">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="F57" s="13">
-        <v>3.01</v>
+        <v>2.96</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>14</v>
@@ -2672,7 +2672,7 @@
         <v>65</v>
       </c>
       <c r="B58" s="13">
-        <v>7.51</v>
+        <v>7.95</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>14</v>
@@ -2681,10 +2681,10 @@
         <v>14</v>
       </c>
       <c r="E58" s="13">
-        <v>7.51</v>
+        <v>7.95</v>
       </c>
       <c r="F58" s="13">
-        <v>4.8</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>12</v>
@@ -2698,25 +2698,25 @@
         <v>66</v>
       </c>
       <c r="B59" s="10">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="C59" s="10">
-        <v>3.29</v>
+        <v>3.24</v>
       </c>
       <c r="D59" s="11">
-        <v>-0.12</v>
+        <v>-9.6000000000000002E-2</v>
       </c>
       <c r="E59" s="10">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="F59" s="10">
-        <v>3.54</v>
+        <v>3.5</v>
       </c>
       <c r="G59" s="10">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="H59" s="10">
-        <v>3.06</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2724,25 +2724,25 @@
         <v>67</v>
       </c>
       <c r="B60" s="13">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="C60" s="13">
-        <v>3.38</v>
+        <v>3.33</v>
       </c>
       <c r="D60" s="14">
-        <v>-0.1</v>
+        <v>-8.4000000000000005E-2</v>
       </c>
       <c r="E60" s="13">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="F60" s="13">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="G60" s="13">
-        <v>2.77</v>
+        <v>2.78</v>
       </c>
       <c r="H60" s="13">
-        <v>3.12</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2759,10 +2759,10 @@
         <v>14</v>
       </c>
       <c r="E61" s="13">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="F61" s="13">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>14</v>
@@ -2785,10 +2785,10 @@
         <v>14</v>
       </c>
       <c r="E62" s="13">
-        <v>3.28</v>
+        <v>3.33</v>
       </c>
       <c r="F62" s="13">
-        <v>3.52</v>
+        <v>3.49</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>14</v>
@@ -2802,19 +2802,19 @@
         <v>70</v>
       </c>
       <c r="B63" s="10">
-        <v>6.54</v>
+        <v>6.57</v>
       </c>
       <c r="C63" s="10">
-        <v>5.36</v>
+        <v>5.37</v>
       </c>
       <c r="D63" s="11">
         <v>0.22</v>
       </c>
       <c r="E63" s="10">
-        <v>6.54</v>
+        <v>6.57</v>
       </c>
       <c r="F63" s="10">
-        <v>5.36</v>
+        <v>5.37</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>12</v>
@@ -2828,19 +2828,19 @@
         <v>71</v>
       </c>
       <c r="B64" s="13">
-        <v>6.54</v>
+        <v>6.57</v>
       </c>
       <c r="C64" s="13">
-        <v>5.36</v>
+        <v>5.37</v>
       </c>
       <c r="D64" s="14">
         <v>0.22</v>
       </c>
       <c r="E64" s="13">
-        <v>6.54</v>
+        <v>6.57</v>
       </c>
       <c r="F64" s="13">
-        <v>5.36</v>
+        <v>5.37</v>
       </c>
       <c r="G64" s="13" t="s">
         <v>12</v>
@@ -2880,25 +2880,25 @@
         <v>73</v>
       </c>
       <c r="B66" s="10">
-        <v>2.79</v>
+        <v>2.81</v>
       </c>
       <c r="C66" s="10">
-        <v>3.38</v>
+        <v>3.32</v>
       </c>
       <c r="D66" s="11">
-        <v>-0.17</v>
+        <v>-0.15</v>
       </c>
       <c r="E66" s="10">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="F66" s="10">
-        <v>3.63</v>
+        <v>3.57</v>
       </c>
       <c r="G66" s="10">
-        <v>2.44</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H66" s="10">
-        <v>3.06</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.25">
